--- a/data/long_razon/P16-Edad-long_razon.xlsx
+++ b/data/long_razon/P16-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-47,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-37,54%</t>
+          <t>-19,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>117,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-40,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 82,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-72,74; -8,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 93,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-59,85; -9,13</t>
+          <t>-63,3; 58,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,25; 289,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,46; -5,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,03; 16,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 50,2</t>
+          <t>3,69; 145,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 12,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-21,85; 82,08</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-20,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>53,92%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,38; 149,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,28; 37,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 97,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 78,25</t>
+          <t>0,75; 320,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 138,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 121,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 73,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 49,36</t>
+          <t>-30,74; 69,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 74,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 161,62</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>63,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,29%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>68,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 110,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 125,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 178,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,32; 20,66</t>
+          <t>-31,89; 117,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,83; 159,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,74; 118,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 42,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,92; 115,11</t>
+          <t>-25,16; 48,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,02; 120,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-15,82; 55,94</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,18%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>81,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>104,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>51,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>63,42%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 68,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,25; 72,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 58,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 13,17</t>
+          <t>17,13; 180,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 179,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,27; 183,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 23,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 90,04</t>
+          <t>7,98; 115,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 87,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>21,71; 118,27</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>64,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>53,76%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 120,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-36,88; 61,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 146,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,49; 201,2</t>
+          <t>-15,12; 134,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 213,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 97,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 120,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 79,38</t>
+          <t>-1,67; 180,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 85,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 117,52</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>97,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>166,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,02%</t>
+          <t>108,88%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>54,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>104,13%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,6; 112,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,25; 82,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 48,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 102,6</t>
+          <t>-14,55; 332,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,15; 35,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>68,27; 369,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 83,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 34,63</t>
+          <t>19,65; 275,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,17; 123,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>26,23; 216,95</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>51,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>46,18%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 50,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 16,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 44,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 17,66</t>
+          <t>14,35; 94,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,67; 85,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,48; 76,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 26,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 38,48</t>
+          <t>22,4; 75,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,88; 52,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>25,03; 73,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
